--- a/IOCR2.0/output/PO_ID - 0011085013.xlsx
+++ b/IOCR2.0/output/PO_ID - 0011085013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Ehrlich\Desktop\My Drive\UI Path Toolkit\Presales Presentations\Demo Kit\REF_OCR\IOCR2.0\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29BF952-0797-4D88-893C-25408C492126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0214D-1515-4672-B9CA-37B20050F4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="-8940" windowWidth="14400" windowHeight="7380" xr2:uid="{C237D64B-C214-4763-B4FB-13A396248F92}"/>
+    <workbookView xWindow="5663" yWindow="1042" windowWidth="11579" windowHeight="7621" xr2:uid="{C237D64B-C214-4763-B4FB-13A396248F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Fields - Formatted" sheetId="3" r:id="rId1"/>
